--- a/REF_시험결과집계_20240403/Data/Config.xlsx
+++ b/REF_시험결과집계_20240403/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Desktop\REF_시험결과집계\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Desktop\REF_시험결과집계_20240403\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD4B0C-55BE-4CF4-878B-FFFAFF9476C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EF74F-564B-4E46-B335-7A6FC171CEC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
